--- a/SANTA_VITORIA_DO_PALMAR.xlsx
+++ b/SANTA_VITORIA_DO_PALMAR.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gera-fichas\Comarcas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8E7670FF-FC4F-478E-BC89-82423036D446}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B63D8CED-080F-4FE1-835F-D65D5EA42ADB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1220,7 +1220,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 3" xfId="1" xr:uid="{B6F4BDD9-ED9B-4259-9EF4-D7787115E959}"/>
+    <cellStyle name="Normal 3" xfId="1" xr:uid="{CE66E6DA-4CD6-4910-8FF4-B549ECBEB1A9}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1250,10 +1250,10 @@
         <xdr:cNvPr id="2" name="Chart1" title="Gráfico">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A2DD8B6-7828-40B2-80CB-F23FA564ABB4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{645DC42F-FDBC-4A9B-815C-BBB281880E6B}"/>
             </a:ext>
             <a:ext uri="GoogleSheetsCustomDataVersion1">
-              <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" pictureOfChart="1"/>
+              <go:sheetsCustomData xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:go="http://customooxmlschemas.google.com/" pictureOfChart="1"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1291,7 +1291,7 @@
         <xdr:cNvPr id="3" name="Shape 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{380289F1-9FE0-4F64-B774-66DBD36BDE8D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E60006DC-E39C-41FD-B33C-561329746EA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1354,7 +1354,7 @@
         <xdr:cNvPr id="4" name="Shape 2" title="Desenho">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA9C35E6-8B23-42DF-A7F9-54A26452E49D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E8868816-76E5-4D3E-8EA7-92CA9060F85C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1373,7 +1373,7 @@
           <xdr:cNvPr id="5" name="Shape 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{344E03AD-4285-44AB-0E37-0D101CAC6881}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{07C0E15D-B26F-38A3-9981-8AF51814790A}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1422,7 +1422,7 @@
           <xdr:cNvPr id="6" name="Shape 5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5BC0DB46-E00D-7A08-A9B7-7AEB9D888728}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4265129D-9AEA-06B1-88EB-821C5A097D1F}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1441,7 +1441,7 @@
             <xdr:cNvPr id="7" name="Shape 6">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC9F7F9E-D9FD-CCA5-9E39-E7380642F2D4}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A8510570-DEB9-5A57-229D-DFFED56F85D8}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1472,7 +1472,7 @@
             <xdr:cNvPr id="8" name="Shape 7">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FB1C75D6-D0CC-2C7A-2781-B6997CFD29D9}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9BE06520-1FC9-BC8F-BB17-9FAA34CBA741}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1503,7 +1503,7 @@
             <xdr:cNvPr id="9" name="Shape 8">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B7D788D-0FF2-F484-BAF8-1F0E018D5C12}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3860A5E7-1BED-D749-634F-2B582DA1163D}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1546,7 +1546,7 @@
         <xdr:cNvPr id="10" name="image2.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D87FC64-0FB7-4272-8113-92A9835926A0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{632F8D9F-8331-40F8-9F7A-08375E7DBF5F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1584,7 +1584,7 @@
         <xdr:cNvPr id="11" name="image1.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{65047BF0-BC17-44C8-9245-605E4AD31C52}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD09B9ED-347E-415E-A93D-5B0D07F8427C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1627,7 +1627,7 @@
         <xdr:cNvPr id="12" name="Imagem 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{99A653A0-7B65-4F3F-BECE-D8E9AF9B62D7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E35EE784-9585-4AB4-A6AA-69628F01F77B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1940,7 +1940,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35DC77D1-D628-4A8B-B916-62139EAD42D0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3792BA8-606F-43CE-9B8F-6B472EF2CF1E}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>

--- a/SANTA_VITORIA_DO_PALMAR.xlsx
+++ b/SANTA_VITORIA_DO_PALMAR.xlsx
@@ -8,25 +8,24 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gera-fichas\Comarcas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B63D8CED-080F-4FE1-835F-D65D5EA42ADB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{21DC4850-70F5-4F24-B579-D1E12D1BF16C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Paineis DARQ" sheetId="7" r:id="rId1"/>
+    <sheet name="PAINEIS DARQ" sheetId="6" r:id="rId1"/>
     <sheet name="DESFAZIMENTOS" sheetId="1" r:id="rId2"/>
     <sheet name="MATERIAIS-FORNECIDOS" sheetId="2" r:id="rId3"/>
     <sheet name="DATA-LIMITE-REQUISICOES" sheetId="3" r:id="rId4"/>
     <sheet name="CPIP" sheetId="4" r:id="rId5"/>
-    <sheet name="Recolhimento x Eliminacao" sheetId="5" r:id="rId6"/>
-    <sheet name="Desarquivamentos Pendentes" sheetId="6" r:id="rId7"/>
+    <sheet name="RECOLHIMENTO X ELIMINAÇÃO" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="744" uniqueCount="305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="740" uniqueCount="302">
   <si>
     <t>COMARCA</t>
   </si>
@@ -932,15 +931,6 @@
   </si>
   <si>
     <t>Não finalizou procedimentos de eliminação</t>
-  </si>
-  <si>
-    <t>PEDIDOS PENDENTES</t>
-  </si>
-  <si>
-    <t>%</t>
-  </si>
-  <si>
-    <t>SANTA VITÓRIA DO PALMAR</t>
   </si>
 </sst>
 </file>
@@ -1132,7 +1122,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1200,27 +1190,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 3" xfId="1" xr:uid="{CE66E6DA-4CD6-4910-8FF4-B549ECBEB1A9}"/>
+    <cellStyle name="Normal 3" xfId="1" xr:uid="{FB440DC8-1670-4211-A432-A6DA5129703E}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1250,10 +1225,10 @@
         <xdr:cNvPr id="2" name="Chart1" title="Gráfico">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{645DC42F-FDBC-4A9B-815C-BBB281880E6B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{01AA49D2-A942-4D8D-8277-ABDA53D764DF}"/>
             </a:ext>
             <a:ext uri="GoogleSheetsCustomDataVersion1">
-              <go:sheetsCustomData xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:go="http://customooxmlschemas.google.com/" pictureOfChart="1"/>
+              <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" pictureOfChart="1"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1291,7 +1266,7 @@
         <xdr:cNvPr id="3" name="Shape 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E60006DC-E39C-41FD-B33C-561329746EA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BBA52F29-64DD-4B27-91AE-D7CF4075207D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1354,7 +1329,7 @@
         <xdr:cNvPr id="4" name="Shape 2" title="Desenho">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E8868816-76E5-4D3E-8EA7-92CA9060F85C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD49C94D-53A9-4439-AB0A-7DACC8E6B697}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1373,7 +1348,7 @@
           <xdr:cNvPr id="5" name="Shape 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{07C0E15D-B26F-38A3-9981-8AF51814790A}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{554C8D89-D5BB-45BE-A482-8C654181C8EF}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1422,7 +1397,7 @@
           <xdr:cNvPr id="6" name="Shape 5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4265129D-9AEA-06B1-88EB-821C5A097D1F}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A918F89-1734-5EFB-789F-E7AE1504C8A1}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1441,7 +1416,7 @@
             <xdr:cNvPr id="7" name="Shape 6">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A8510570-DEB9-5A57-229D-DFFED56F85D8}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2695A9C1-EB6D-C081-0312-40FC016116DA}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1472,7 +1447,7 @@
             <xdr:cNvPr id="8" name="Shape 7">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9BE06520-1FC9-BC8F-BB17-9FAA34CBA741}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8DA3BDB4-BB91-BF21-C73E-BE1B329A11CE}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1503,7 +1478,7 @@
             <xdr:cNvPr id="9" name="Shape 8">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3860A5E7-1BED-D749-634F-2B582DA1163D}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A2C381CC-6583-2CFF-5F10-1070941B7D77}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1546,7 +1521,7 @@
         <xdr:cNvPr id="10" name="image2.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{632F8D9F-8331-40F8-9F7A-08375E7DBF5F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{424BDAD8-4640-466E-A467-020E22EFA262}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1584,7 +1559,7 @@
         <xdr:cNvPr id="11" name="image1.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD09B9ED-347E-415E-A93D-5B0D07F8427C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C05044CC-88AA-49A3-8BBE-CC6734D650F6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1627,7 +1602,7 @@
         <xdr:cNvPr id="12" name="Imagem 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E35EE784-9585-4AB4-A6AA-69628F01F77B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5B228B8-857D-44BD-BBDF-2B6A3E077014}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1940,7 +1915,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3792BA8-606F-43CE-9B8F-6B472EF2CF1E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0934B85-9E08-46CE-A10E-088E887FACBA}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -1952,98 +1927,98 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="5" width="12.5703125" style="35"/>
-    <col min="6" max="6" width="2" style="35" customWidth="1"/>
-    <col min="7" max="16" width="13.42578125" style="35" customWidth="1"/>
-    <col min="17" max="16384" width="12.5703125" style="35"/>
+    <col min="1" max="5" width="12.5703125" style="30"/>
+    <col min="6" max="6" width="2" style="30" customWidth="1"/>
+    <col min="7" max="16" width="13.42578125" style="30" customWidth="1"/>
+    <col min="17" max="16384" width="12.5703125" style="30"/>
   </cols>
   <sheetData>
     <row r="1" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F1" s="34"/>
+      <c r="F1" s="29"/>
     </row>
     <row r="2" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F2" s="34"/>
+      <c r="F2" s="29"/>
     </row>
     <row r="3" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F3" s="34"/>
+      <c r="F3" s="29"/>
     </row>
     <row r="4" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F4" s="34"/>
+      <c r="F4" s="29"/>
     </row>
     <row r="5" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F5" s="34"/>
+      <c r="F5" s="29"/>
     </row>
     <row r="6" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F6" s="34"/>
+      <c r="F6" s="29"/>
     </row>
     <row r="7" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F7" s="34"/>
+      <c r="F7" s="29"/>
     </row>
     <row r="8" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F8" s="34"/>
+      <c r="F8" s="29"/>
     </row>
     <row r="9" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F9" s="34"/>
+      <c r="F9" s="29"/>
     </row>
     <row r="10" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F10" s="34"/>
+      <c r="F10" s="29"/>
     </row>
     <row r="11" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F11" s="34"/>
+      <c r="F11" s="29"/>
     </row>
     <row r="12" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F12" s="34"/>
+      <c r="F12" s="29"/>
     </row>
     <row r="13" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F13" s="34"/>
+      <c r="F13" s="29"/>
     </row>
     <row r="14" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F14" s="34"/>
+      <c r="F14" s="29"/>
     </row>
     <row r="15" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F15" s="34"/>
+      <c r="F15" s="29"/>
     </row>
     <row r="16" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F16" s="34"/>
+      <c r="F16" s="29"/>
     </row>
     <row r="17" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F17" s="34"/>
+      <c r="F17" s="29"/>
     </row>
     <row r="18" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F18" s="34"/>
+      <c r="F18" s="29"/>
     </row>
     <row r="19" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F19" s="34"/>
+      <c r="F19" s="29"/>
     </row>
     <row r="20" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F20" s="34"/>
+      <c r="F20" s="29"/>
     </row>
     <row r="21" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F21" s="34"/>
+      <c r="F21" s="29"/>
     </row>
     <row r="22" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F22" s="34"/>
+      <c r="F22" s="29"/>
     </row>
     <row r="23" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F23" s="34"/>
+      <c r="F23" s="29"/>
     </row>
     <row r="24" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F24" s="34"/>
+      <c r="F24" s="29"/>
     </row>
     <row r="25" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F25" s="34"/>
+      <c r="F25" s="29"/>
     </row>
     <row r="26" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F26" s="34"/>
+      <c r="F26" s="29"/>
     </row>
     <row r="27" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F27" s="34"/>
+      <c r="F27" s="29"/>
     </row>
     <row r="28" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F28" s="34"/>
+      <c r="F28" s="29"/>
     </row>
     <row r="29" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F29" s="34"/>
+      <c r="F29" s="29"/>
     </row>
   </sheetData>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -5553,52 +5528,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:F2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="35" customWidth="1"/>
-    <col min="2" max="2" width="31.85546875" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" customWidth="1"/>
-    <col min="4" max="4" width="12.5703125" customWidth="1"/>
-    <col min="5" max="6" width="13" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="C1" s="29" t="s">
-        <v>303</v>
-      </c>
-      <c r="E1" s="30">
-        <v>15072</v>
-      </c>
-      <c r="F1" s="31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="32" t="s">
-        <v>304</v>
-      </c>
-      <c r="B2" s="33">
-        <v>112</v>
-      </c>
-      <c r="C2" s="31">
-        <v>7.4064277212008986E-3</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>
--- a/SANTA_VITORIA_DO_PALMAR.xlsx
+++ b/SANTA_VITORIA_DO_PALMAR.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gera-fichas\Comarcas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{21DC4850-70F5-4F24-B579-D1E12D1BF16C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E3F4FDB9-9A74-40DD-B679-1A5305D7DA7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1195,7 +1195,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 3" xfId="1" xr:uid="{FB440DC8-1670-4211-A432-A6DA5129703E}"/>
+    <cellStyle name="Normal 3" xfId="1" xr:uid="{F3457626-FA66-49C6-A999-4FD55833DFB6}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1225,10 +1225,10 @@
         <xdr:cNvPr id="2" name="Chart1" title="Gráfico">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{01AA49D2-A942-4D8D-8277-ABDA53D764DF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2672AA65-9CAC-4B6D-AFAD-325FFA0EB0F7}"/>
             </a:ext>
             <a:ext uri="GoogleSheetsCustomDataVersion1">
-              <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" pictureOfChart="1"/>
+              <go:sheetsCustomData xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:go="http://customooxmlschemas.google.com/" pictureOfChart="1"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1266,7 +1266,7 @@
         <xdr:cNvPr id="3" name="Shape 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BBA52F29-64DD-4B27-91AE-D7CF4075207D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{27DEF2D8-EF03-4982-8D61-BEAB663FF4D1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1329,7 +1329,7 @@
         <xdr:cNvPr id="4" name="Shape 2" title="Desenho">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD49C94D-53A9-4439-AB0A-7DACC8E6B697}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D486289F-EC13-43BF-87BA-8335E3298516}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1348,7 +1348,7 @@
           <xdr:cNvPr id="5" name="Shape 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{554C8D89-D5BB-45BE-A482-8C654181C8EF}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1AC76522-B118-0D55-F8AE-34C0CF7D45BD}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1397,7 +1397,7 @@
           <xdr:cNvPr id="6" name="Shape 5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A918F89-1734-5EFB-789F-E7AE1504C8A1}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00057153-0FD7-5D6C-A348-B113D4305E1D}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1416,7 +1416,7 @@
             <xdr:cNvPr id="7" name="Shape 6">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2695A9C1-EB6D-C081-0312-40FC016116DA}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{39F1CB62-9AA3-1504-CAD0-0F6CE6B8CC98}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1447,7 +1447,7 @@
             <xdr:cNvPr id="8" name="Shape 7">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8DA3BDB4-BB91-BF21-C73E-BE1B329A11CE}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0FF058ED-9ADC-2DE5-530D-D31B9E298206}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1478,7 +1478,7 @@
             <xdr:cNvPr id="9" name="Shape 8">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A2C381CC-6583-2CFF-5F10-1070941B7D77}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B8573476-DBAF-5812-1142-A8ADC163BE13}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1521,7 +1521,7 @@
         <xdr:cNvPr id="10" name="image2.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{424BDAD8-4640-466E-A467-020E22EFA262}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{42F82150-3CD0-4ACB-9701-FE3C4C7FBE3C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1559,7 +1559,7 @@
         <xdr:cNvPr id="11" name="image1.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C05044CC-88AA-49A3-8BBE-CC6734D650F6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{964D988B-94E2-4B6D-9369-D32F2784EE81}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1584,50 +1584,6 @@
     </xdr:pic>
     <xdr:clientData fLocksWithSheet="0"/>
   </xdr:oneCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>315640</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>143650</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="12" name="Imagem 11">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5B228B8-857D-44BD-BBDF-2B6A3E077014}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1485900" y="6219825"/>
-          <a:ext cx="9421540" cy="4525150"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1915,7 +1871,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0934B85-9E08-46CE-A10E-088E887FACBA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F66DFA2-09C8-4D89-B5AC-6134BF754497}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
